--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Spring.030220.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Spring.030220.xlsx_with_dialog_acts.xlsx
@@ -723,12 +723,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1185,12 +1185,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1227,12 +1227,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1479,12 +1479,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1815,12 +1815,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1857,12 +1857,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2025,12 +2025,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2487,12 +2487,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3159,12 +3159,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3243,12 +3243,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3453,12 +3453,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3537,12 +3537,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3583,12 +3583,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3667,12 +3667,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4045,12 +4045,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4129,12 +4129,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4381,12 +4381,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5267,12 +5267,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5519,12 +5519,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5687,12 +5687,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6023,12 +6023,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6149,12 +6149,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6191,12 +6191,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6233,12 +6233,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6275,12 +6275,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6359,12 +6359,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6741,12 +6741,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6783,12 +6783,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7035,12 +7035,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7453,12 +7453,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7579,12 +7579,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7663,12 +7663,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7957,12 +7957,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8125,12 +8125,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8461,12 +8461,12 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -8545,12 +8545,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8797,12 +8797,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8881,12 +8881,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9561,12 +9561,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9943,12 +9943,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9985,12 +9985,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10833,12 +10833,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11127,12 +11127,12 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11463,12 +11463,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12135,12 +12135,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12219,12 +12219,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12345,12 +12345,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12849,12 +12849,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13395,12 +13395,12 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14279,12 +14279,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15035,12 +15035,12 @@
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15245,12 +15245,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15749,12 +15749,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16043,12 +16043,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16341,12 +16341,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16383,12 +16383,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16887,12 +16887,12 @@
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17433,12 +17433,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17475,12 +17475,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17853,12 +17853,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18063,12 +18063,12 @@
       <c r="H419" t="inlineStr"/>
       <c r="I419" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18399,12 +18399,12 @@
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18525,12 +18525,12 @@
       <c r="H430" t="inlineStr"/>
       <c r="I430" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19953,12 +19953,12 @@
       <c r="H464" t="inlineStr"/>
       <c r="I464" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20289,12 +20289,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20667,12 +20667,12 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20919,12 +20919,12 @@
       <c r="H487" t="inlineStr"/>
       <c r="I487" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21003,12 +21003,12 @@
       <c r="H489" t="inlineStr"/>
       <c r="I489" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21129,12 +21129,12 @@
       <c r="H492" t="inlineStr"/>
       <c r="I492" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21463,12 +21463,12 @@
       <c r="H500" t="inlineStr"/>
       <c r="I500" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21505,12 +21505,12 @@
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21547,12 +21547,12 @@
       <c r="H502" t="inlineStr"/>
       <c r="I502" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22387,12 +22387,12 @@
       <c r="H522" t="inlineStr"/>
       <c r="I522" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22471,12 +22471,12 @@
       <c r="H524" t="inlineStr"/>
       <c r="I524" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22513,12 +22513,12 @@
       <c r="H525" t="inlineStr"/>
       <c r="I525" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
